--- a/OnBoard/output/trust/catch/Catch_Trust_54.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_54.xlsx
@@ -1925,7 +1925,7 @@
         <v>0.099</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38">
         <v>4.644857142857142</v>
@@ -2622,7 +2622,7 @@
         <v>0.476</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I55">
         <v>4.644857142857142</v>
@@ -2704,7 +2704,7 @@
         <v>0.117</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I57">
         <v>4.644857142857142</v>
